--- a/arduino distance sensor.xlsx
+++ b/arduino distance sensor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19f0bfc1cc9bccb5/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DBC945A-D78B-48BD-8C87-70B6EDB18FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{7DBC945A-D78B-48BD-8C87-70B6EDB18FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99AF5E70-E637-44DD-B709-B65DE6F3DFAC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{973771DA-C017-44C0-AEDE-2100E79B70CD}"/>
   </bookViews>
@@ -36,13 +36,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Distance without correction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Distance with temperature and huminity correction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moon Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moon distance with correction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,6 +120,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,180 +443,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66E8A84-9B8D-42E3-95DE-9374524EAE1A}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>3.7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10">
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>15.56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11">
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11">
         <v>20</v>
       </c>
-      <c r="B11">
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12">
+      <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13">
+      <c r="E12">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>22.09</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13">
         <v>24</v>
       </c>
-      <c r="B13">
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14">
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>23.97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14">
         <v>26</v>
       </c>
-      <c r="B14">
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15">
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>25.67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15">
         <v>28</v>
       </c>
-      <c r="B15">
+      <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="D15">
         <v>28.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16">
+      <c r="E15">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <v>27.45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16">
         <v>30</v>
       </c>
-      <c r="B16">
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
         <v>29.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17">
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>30.02</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17">
         <v>32</v>
       </c>
-      <c r="B17">
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17">
         <v>31.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18">
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>30.09</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18">
         <v>34</v>
       </c>
-      <c r="B18">
+      <c r="C18">
+        <v>34</v>
+      </c>
+      <c r="D18">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19">
+      <c r="E18">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>33.36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19">
         <v>36</v>
       </c>
-      <c r="B19">
+      <c r="C19">
+        <v>36</v>
+      </c>
+      <c r="D19">
         <v>36.299999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20">
+      <c r="E19">
+        <v>33</v>
+      </c>
+      <c r="F19">
+        <v>33.64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20">
         <v>38</v>
       </c>
-      <c r="B20">
+      <c r="C20">
+        <v>38</v>
+      </c>
+      <c r="D20">
         <v>37.799999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21">
+      <c r="E20">
+        <v>34</v>
+      </c>
+      <c r="F20">
+        <v>35.65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21">
         <v>40</v>
       </c>
-      <c r="B21">
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21">
         <v>39.6</v>
+      </c>
+      <c r="E21">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>36.79</v>
       </c>
     </row>
   </sheetData>

--- a/arduino distance sensor.xlsx
+++ b/arduino distance sensor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19f0bfc1cc9bccb5/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{7DBC945A-D78B-48BD-8C87-70B6EDB18FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99AF5E70-E637-44DD-B709-B65DE6F3DFAC}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{7DBC945A-D78B-48BD-8C87-70B6EDB18FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA6701F-D34C-449E-855A-6DD6A4954546}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{973771DA-C017-44C0-AEDE-2100E79B70CD}"/>
   </bookViews>
@@ -443,362 +443,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66E8A84-9B8D-42E3-95DE-9374524EAE1A}">
-  <dimension ref="B1:F21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3.7</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3">
+        <v>4.8</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>4.8</v>
-      </c>
       <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>6</v>
+      </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4">
+        <v>6.2</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>6.2</v>
-      </c>
       <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
         <v>6.31</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>8</v>
+      </c>
       <c r="B5">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="D5">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
         <v>7.91</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>10</v>
+      </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="D6">
-        <v>10.1</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
         <v>9.3800000000000008</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>12</v>
+      </c>
       <c r="B7">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>12.6</v>
       </c>
       <c r="D7">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7">
         <v>11.39</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>14</v>
+      </c>
       <c r="B8">
         <v>14</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="D8">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>13</v>
-      </c>
-      <c r="F8">
         <v>13.82</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>16</v>
+      </c>
       <c r="B9">
         <v>16</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="D9">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>15</v>
-      </c>
-      <c r="F9">
         <v>15.56</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>18</v>
+      </c>
       <c r="B10">
         <v>18</v>
       </c>
       <c r="C10">
+        <v>18.5</v>
+      </c>
+      <c r="D10">
         <v>18</v>
       </c>
-      <c r="D10">
-        <v>18.5</v>
-      </c>
       <c r="E10">
-        <v>18</v>
-      </c>
-      <c r="F10">
         <v>18.2</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>20</v>
+      </c>
       <c r="B11">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="D11">
-        <v>20.3</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>21</v>
-      </c>
-      <c r="F11">
         <v>21.05</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>22</v>
+      </c>
       <c r="B12">
         <v>22</v>
       </c>
       <c r="C12">
+        <v>22.6</v>
+      </c>
+      <c r="D12">
         <v>22</v>
       </c>
-      <c r="D12">
-        <v>22.6</v>
-      </c>
       <c r="E12">
-        <v>22</v>
-      </c>
-      <c r="F12">
         <v>22.09</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>24</v>
+      </c>
       <c r="B13">
         <v>24</v>
       </c>
       <c r="C13">
+        <v>24.1</v>
+      </c>
+      <c r="D13">
         <v>24</v>
       </c>
-      <c r="D13">
-        <v>24.1</v>
-      </c>
       <c r="E13">
-        <v>24</v>
-      </c>
-      <c r="F13">
         <v>23.97</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>26</v>
+      </c>
       <c r="B14">
         <v>26</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>26.6</v>
       </c>
       <c r="D14">
-        <v>26.6</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>25</v>
-      </c>
-      <c r="F14">
         <v>25.67</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>28</v>
+      </c>
       <c r="B15">
         <v>28</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="D15">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>27</v>
-      </c>
-      <c r="F15">
         <v>27.45</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>30</v>
+      </c>
       <c r="B16">
         <v>30</v>
       </c>
       <c r="C16">
+        <v>29.8</v>
+      </c>
+      <c r="D16">
         <v>30</v>
       </c>
-      <c r="D16">
-        <v>29.8</v>
-      </c>
       <c r="E16">
-        <v>30</v>
-      </c>
-      <c r="F16">
         <v>30.02</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>32</v>
+      </c>
       <c r="B17">
         <v>32</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="D17">
-        <v>31.7</v>
+        <v>30</v>
       </c>
       <c r="E17">
-        <v>30</v>
-      </c>
-      <c r="F17">
         <v>30.09</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>34</v>
+      </c>
       <c r="B18">
         <v>34</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="D18">
-        <v>34.4</v>
+        <v>33</v>
       </c>
       <c r="E18">
-        <v>33</v>
-      </c>
-      <c r="F18">
         <v>33.36</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>36</v>
+      </c>
       <c r="B19">
         <v>36</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="D19">
-        <v>36.299999999999997</v>
+        <v>33</v>
       </c>
       <c r="E19">
-        <v>33</v>
-      </c>
-      <c r="F19">
         <v>33.64</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>38</v>
+      </c>
       <c r="B20">
         <v>38</v>
       </c>
       <c r="C20">
-        <v>38</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="D20">
-        <v>37.799999999999997</v>
+        <v>34</v>
       </c>
       <c r="E20">
-        <v>34</v>
-      </c>
-      <c r="F20">
         <v>35.65</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>40</v>
+      </c>
       <c r="B21">
         <v>40</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>39.6</v>
       </c>
       <c r="D21">
-        <v>39.6</v>
+        <v>36</v>
       </c>
       <c r="E21">
-        <v>36</v>
-      </c>
-      <c r="F21">
         <v>36.79</v>
       </c>
     </row>
